--- a/TICKET/PLAN/schedule.xlsx
+++ b/TICKET/PLAN/schedule.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$22</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>프로젝트 개발 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>공연 예매 페이지 UI 및 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-6.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP 소켓 통신 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 days</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +241,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -259,7 +277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,20 +326,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -633,17 +657,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
@@ -684,110 +708,110 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>30</v>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -797,12 +821,12 @@
         <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
@@ -814,13 +838,13 @@
         <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9">
@@ -834,10 +858,10 @@
         <v>30</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9">
@@ -848,14 +872,14 @@
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
@@ -865,85 +889,85 @@
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="13">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
         <v>3</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="13">
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
         <v>4</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="7"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>30</v>
@@ -957,10 +981,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>30</v>
@@ -972,14 +996,31 @@
       <c r="H20" s="4"/>
       <c r="I20" s="7"/>
     </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
